--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -8254,7 +8254,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -8254,7 +8254,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="502">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-dir-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -213,81 +213,85 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-dh-dir-03:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/diagnosticreport-path-atomic-1' {null}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>DiagnosticReport.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
     <t>DiagnosticReport.meta.lastUpdated</t>
   </si>
   <si>
@@ -923,7 +927,7 @@
 </t>
   </si>
   <si>
-    <t>What was requested</t>
+    <t>Pathology order</t>
   </si>
   <si>
     <t>Details concerning a service requested.</t>
@@ -1030,7 +1034,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>registered | partial | preliminary | final +</t>
+    <t>partial | preliminary | final +</t>
   </si>
   <si>
     <t>The status of the diagnostic report.</t>
@@ -1039,7 +1043,7 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnosticreportstatus-report-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1078,7 +1082,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-diagnostic-service-category-1</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -1103,10 +1107,7 @@
     <t>A code or name that describes this diagnostic report.</t>
   </si>
   <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1153,7 +1154,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1255,7 +1256,7 @@
 Date IssuedDate Verified</t>
   </si>
   <si>
-    <t>DateTime this version was made</t>
+    <t>Pathology report date time</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -1283,7 +1284,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1768,7 +1769,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.98828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2551,7 +2552,7 @@
         <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>43</v>
@@ -2568,7 +2569,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2591,16 +2592,16 @@
         <v>53</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2650,7 +2651,7 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2662,7 +2663,7 @@
         <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>43</v>
@@ -2679,7 +2680,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2702,16 +2703,16 @@
         <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2761,7 +2762,7 @@
         <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2773,7 +2774,7 @@
         <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>43</v>
@@ -2790,7 +2791,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2813,16 +2814,16 @@
         <v>53</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2872,7 +2873,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2884,7 +2885,7 @@
         <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>43</v>
@@ -2901,7 +2902,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2924,16 +2925,16 @@
         <v>53</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2959,13 +2960,13 @@
         <v>43</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>43</v>
@@ -2983,7 +2984,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2995,7 +2996,7 @@
         <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>43</v>
@@ -3012,7 +3013,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3035,16 +3036,16 @@
         <v>53</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3070,13 +3071,13 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>43</v>
@@ -3094,7 +3095,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -3106,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>43</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3146,16 +3147,16 @@
         <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3205,7 +3206,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3217,7 +3218,7 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>43</v>
@@ -3234,7 +3235,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3257,16 +3258,16 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3274,7 +3275,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>43</v>
@@ -3292,13 +3293,13 @@
         <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -3316,7 +3317,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3328,7 +3329,7 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>43</v>
@@ -3345,11 +3346,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3368,16 +3369,16 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3427,7 +3428,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3439,7 +3440,7 @@
         <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>43</v>
@@ -3448,7 +3449,7 @@
         <v>43</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>43</v>
@@ -3456,11 +3457,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3479,16 +3480,16 @@
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3538,7 +3539,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3559,7 +3560,7 @@
         <v>43</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>43</v>
@@ -3567,7 +3568,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3596,7 +3597,7 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>75</v>
@@ -3649,7 +3650,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3670,7 +3671,7 @@
         <v>43</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>43</v>
@@ -3678,7 +3679,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3704,16 +3705,16 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3762,7 +3763,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3783,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>43</v>
@@ -3791,11 +3792,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3814,19 +3815,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3863,7 +3864,7 @@
         <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
@@ -3873,7 +3874,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3885,30 +3886,30 @@
         <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3927,19 +3928,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -3988,7 +3989,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -4000,24 +4001,24 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4126,7 +4127,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4237,7 +4238,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4260,19 +4261,19 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -4297,13 +4298,13 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
@@ -4321,7 +4322,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4333,16 +4334,16 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4350,7 +4351,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4373,19 +4374,19 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4410,11 +4411,11 @@
         <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>43</v>
@@ -4432,7 +4433,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4444,16 +4445,16 @@
         <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4461,7 +4462,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4570,7 +4571,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4681,7 +4682,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4704,19 +4705,19 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4765,7 +4766,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4777,16 +4778,16 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4794,7 +4795,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4903,7 +4904,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5014,7 +5015,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5037,26 +5038,26 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -5098,7 +5099,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5110,16 +5111,16 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -5127,7 +5128,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5153,13 +5154,13 @@
         <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5209,7 +5210,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5221,16 +5222,16 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5238,7 +5239,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5261,24 +5262,24 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>43</v>
@@ -5320,7 +5321,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5332,16 +5333,16 @@
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5349,7 +5350,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5375,14 +5376,14 @@
         <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5431,7 +5432,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5443,16 +5444,16 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5460,7 +5461,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5483,19 +5484,19 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5544,7 +5545,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5556,16 +5557,16 @@
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5573,7 +5574,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5599,16 +5600,16 @@
         <v>54</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5657,7 +5658,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5669,16 +5670,16 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5686,7 +5687,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5709,19 +5710,19 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5734,7 +5735,7 @@
         <v>43</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>43</v>
@@ -5770,7 +5771,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5782,16 +5783,16 @@
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5799,7 +5800,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5825,13 +5826,13 @@
         <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5845,7 +5846,7 @@
         <v>43</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>43</v>
@@ -5881,7 +5882,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5893,16 +5894,16 @@
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5910,7 +5911,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5933,13 +5934,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5990,7 +5991,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6002,16 +6003,16 @@
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -6019,7 +6020,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6042,16 +6043,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6101,7 +6102,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6113,16 +6114,16 @@
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -6130,11 +6131,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6153,19 +6154,19 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6214,7 +6215,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6226,16 +6227,16 @@
         <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -6243,7 +6244,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6352,7 +6353,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6463,7 +6464,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6489,13 +6490,13 @@
         <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6545,7 +6546,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6554,10 +6555,10 @@
         <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>43</v>
@@ -6566,7 +6567,7 @@
         <v>43</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6574,7 +6575,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6597,16 +6598,16 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6632,13 +6633,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6656,7 +6657,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6668,7 +6669,7 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>43</v>
@@ -6677,7 +6678,7 @@
         <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6685,7 +6686,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6708,16 +6709,16 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6767,7 +6768,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6779,7 +6780,7 @@
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>43</v>
@@ -6788,7 +6789,7 @@
         <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6796,7 +6797,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6822,13 +6823,13 @@
         <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6878,7 +6879,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6890,7 +6891,7 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
@@ -6899,7 +6900,7 @@
         <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
@@ -6907,7 +6908,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6930,17 +6931,17 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6965,13 +6966,11 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
@@ -6989,7 +6988,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>52</v>
@@ -7001,28 +7000,28 @@
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7041,16 +7040,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7061,7 +7060,7 @@
         <v>43</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>43</v>
@@ -7076,11 +7075,11 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7098,7 +7097,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7110,28 +7109,28 @@
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7150,13 +7149,13 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7183,11 +7182,9 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
         <v>349</v>
       </c>
@@ -7207,7 +7204,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>52</v>
@@ -7219,7 +7216,7 @@
         <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>350</v>
@@ -7479,19 +7476,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7538,7 +7535,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7550,16 +7547,16 @@
         <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>43</v>
@@ -7592,19 +7589,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7629,7 +7626,7 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
@@ -7651,7 +7648,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7663,16 +7660,16 @@
         <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>43</v>
@@ -7706,16 +7703,16 @@
         <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7764,7 +7761,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7776,16 +7773,16 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>43</v>
@@ -7887,7 +7884,7 @@
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>368</v>
@@ -8000,7 +7997,7 @@
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>379</v>
@@ -8113,7 +8110,7 @@
         <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>390</v>
@@ -8138,7 +8135,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
@@ -8153,7 +8150,7 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>396</v>
@@ -8226,7 +8223,7 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
@@ -8339,7 +8336,7 @@
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>410</v>
@@ -8452,7 +8449,7 @@
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>410</v>
@@ -8565,7 +8562,7 @@
         <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>43</v>
@@ -8678,7 +8675,7 @@
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
@@ -8941,13 +8938,13 @@
         <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8997,7 +8994,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9006,10 +9003,10 @@
         <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>43</v>
@@ -9018,7 +9015,7 @@
         <v>43</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -9049,16 +9046,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9084,13 +9081,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9108,7 +9105,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9120,7 +9117,7 @@
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
@@ -9129,7 +9126,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9160,16 +9157,16 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9219,7 +9216,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9231,7 +9228,7 @@
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
@@ -9240,7 +9237,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9274,13 +9271,13 @@
         <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9330,7 +9327,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9342,7 +9339,7 @@
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
@@ -9351,7 +9348,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9453,7 +9450,7 @@
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>43</v>
@@ -9564,7 +9561,7 @@
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
@@ -9836,7 +9833,7 @@
         <v>75</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -9906,7 +9903,7 @@
         <v>43</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -10010,7 +10007,7 @@
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>43</v>
@@ -10119,7 +10116,7 @@
         <v>43</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>43</v>
@@ -10230,7 +10227,7 @@
         <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>43</v>
@@ -10270,7 +10267,7 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>482</v>
@@ -10303,7 +10300,7 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X77" t="s" s="2">
         <v>484</v>
@@ -10339,7 +10336,7 @@
         <v>43</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>43</v>
@@ -10599,19 +10596,19 @@
         <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10658,7 +10655,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10670,16 +10667,16 @@
         <v>43</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>43</v>
@@ -10712,19 +10709,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>492</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10749,7 +10746,7 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>492</v>
@@ -10773,7 +10770,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10785,16 +10782,16 @@
         <v>43</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>43</v>
@@ -10828,16 +10825,16 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -10886,7 +10883,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10898,16 +10895,16 @@
         <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>43</v>
@@ -11011,7 +11008,7 @@
         <v>43</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>43</v>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -214,7 +214,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-dh-dir-03:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/diagnosticreport-path-atomic-1' {null}</t>
+inv-dh-dir-03:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/diagnosticreport-path-atomic-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/diagnosticreport-path-atomic-1').exists()}</t>
   </si>
   <si>
     <t>DiagnosticReport.meta.id</t>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -8251,7 +8251,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -8251,7 +8251,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>53</v>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="501">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-dir-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-dir-04:One category shall be 'LAB' 'http://terminology.hl7.org/CodeSystem/v2-0074' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/v2-0074' and code='LAB').exists()}inv-dh-dir-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-dir-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1072,14 +1072,6 @@
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
-    &lt;code value="LAB"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-diagnostic-service-category-1</t>
@@ -7060,7 +7052,7 @@
         <v>43</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>43</v>
@@ -7079,7 +7071,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7115,22 +7107,22 @@
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7152,10 +7144,10 @@
         <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7186,7 +7178,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7204,7 +7196,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>52</v>
@@ -7219,21 +7211,21 @@
         <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7342,7 +7334,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7453,7 +7445,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7525,7 +7517,7 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
@@ -7564,10 +7556,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>43</v>
@@ -7592,7 +7584,7 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>202</v>
@@ -7630,7 +7622,7 @@
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7677,7 +7669,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7790,11 +7782,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7813,17 +7805,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7872,7 +7864,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7887,25 +7879,25 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7924,19 +7916,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7985,7 +7977,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8000,25 +7992,25 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8037,19 +8029,19 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8098,7 +8090,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8113,25 +8105,25 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8153,16 +8145,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8211,7 +8203,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8229,22 +8221,22 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8263,19 +8255,19 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8324,7 +8316,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8339,25 +8331,25 @@
         <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8376,19 +8368,19 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8437,7 +8429,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8452,21 +8444,21 @@
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8489,19 +8481,19 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8550,7 +8542,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8568,10 +8560,10 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8579,11 +8571,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8602,19 +8594,19 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -8663,7 +8655,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8681,10 +8673,10 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8692,7 +8684,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8801,7 +8793,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8912,7 +8904,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9023,7 +9015,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9134,7 +9126,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9245,7 +9237,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9356,7 +9348,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9379,16 +9371,16 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9438,7 +9430,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9459,7 +9451,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9467,11 +9459,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9490,17 +9482,17 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -9549,7 +9541,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9567,10 +9559,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9578,7 +9570,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9687,7 +9679,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9798,11 +9790,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9824,10 +9816,10 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>75</v>
@@ -9882,7 +9874,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9911,7 +9903,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9937,16 +9929,16 @@
         <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -9995,7 +9987,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10016,7 +10008,7 @@
         <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -10024,7 +10016,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10047,13 +10039,13 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10104,7 +10096,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>52</v>
@@ -10125,7 +10117,7 @@
         <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10133,11 +10125,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10159,14 +10151,14 @@
         <v>54</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10215,7 +10207,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10233,10 +10225,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10244,7 +10236,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10270,10 +10262,10 @@
         <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10303,11 +10295,11 @@
         <v>119</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10324,7 +10316,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10342,10 +10334,10 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10353,7 +10345,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10462,7 +10454,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10573,7 +10565,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10645,7 +10637,7 @@
         <v>43</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
@@ -10684,10 +10676,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>43</v>
@@ -10712,7 +10704,7 @@
         <v>107</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>202</v>
@@ -10749,10 +10741,10 @@
         <v>184</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -10799,7 +10791,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10912,7 +10904,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10935,19 +10927,19 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -10996,7 +10988,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11014,10 +11006,10 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="489">
   <si>
     <t>Path</t>
   </si>
@@ -1123,17 +1123,7 @@
     <t>DiagnosticReport.code.coding</t>
   </si>
   <si>
-    <t>value:system}
-value:code}</t>
-  </si>
-  <si>
     <t>snomedImagingProcedures</t>
-  </si>
-  <si>
-    <t>Diagnostic Imaging Procedures (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>DiagnosticReport.code.text</t>
@@ -1526,38 +1516,10 @@
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
-    <t>Diagnosis codes provided as adjuncts to the report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.text</t>
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
@@ -1728,7 +1690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7447,7 +7409,9 @@
       <c r="A52" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7456,7 +7420,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>43</v>
@@ -7517,14 +7481,16 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>205</v>
@@ -7556,11 +7522,9 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B53" t="s" s="2">
         <v>357</v>
       </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>43</v>
       </c>
@@ -7569,7 +7533,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>43</v>
@@ -7581,19 +7545,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7618,11 +7582,13 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7640,13 +7606,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7658,32 +7624,32 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -7692,19 +7658,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>254</v>
+        <v>363</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7753,7 +7717,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>255</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7768,35 +7732,35 @@
         <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>43</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
@@ -7805,17 +7769,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7864,7 +7830,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7879,35 +7845,35 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>43</v>
@@ -7916,19 +7882,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7977,7 +7943,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7992,25 +7958,25 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8029,19 +7995,19 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>384</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8090,7 +8056,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8105,32 +8071,32 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>53</v>
@@ -8142,19 +8108,19 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8203,13 +8169,13 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -8218,35 +8184,35 @@
         <v>87</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>43</v>
+        <v>406</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
@@ -8255,19 +8221,19 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8316,7 +8282,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8331,25 +8297,25 @@
         <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8365,22 +8331,22 @@
         <v>43</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8429,7 +8395,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8444,35 +8410,35 @@
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>412</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>43</v>
@@ -8481,19 +8447,19 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8542,7 +8508,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8560,32 +8526,32 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>428</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>43</v>
@@ -8594,20 +8560,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>429</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>66</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8655,28 +8617,28 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>427</v>
+        <v>68</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>69</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8684,18 +8646,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>43</v>
@@ -8707,15 +8669,17 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8752,31 +8716,31 @@
         <v>43</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
@@ -8793,18 +8757,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>43</v>
@@ -8813,19 +8777,19 @@
         <v>43</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8863,31 +8827,31 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -8896,7 +8860,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -8904,7 +8868,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8912,7 +8876,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>52</v>
@@ -8927,16 +8891,16 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8962,13 +8926,13 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
@@ -8986,7 +8950,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8995,7 +8959,7 @@
         <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>87</v>
@@ -9015,7 +8979,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9038,16 +9002,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9073,13 +9037,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9097,7 +9061,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9118,7 +9082,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9126,7 +9090,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9149,16 +9113,16 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9208,7 +9172,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9229,7 +9193,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9237,7 +9201,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9248,7 +9212,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
@@ -9257,19 +9221,19 @@
         <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>54</v>
+        <v>440</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9319,13 +9283,13 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>325</v>
+        <v>439</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
@@ -9340,7 +9304,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9348,11 +9312,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>43</v>
+        <v>446</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9368,21 +9332,21 @@
         <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9430,7 +9394,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9448,10 +9412,10 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>43</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9459,18 +9423,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9479,21 +9443,19 @@
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>451</v>
+        <v>66</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>452</v>
+        <v>67</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
@@ -9541,28 +9503,28 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>448</v>
+        <v>68</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>69</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9570,18 +9532,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -9593,15 +9555,17 @@
         <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -9650,19 +9614,19 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
@@ -9679,11 +9643,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>71</v>
+        <v>455</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9696,24 +9660,26 @@
         <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>73</v>
+        <v>456</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
@@ -9761,7 +9727,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9782,7 +9748,7 @@
         <v>43</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
@@ -9790,42 +9756,42 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>458</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>75</v>
+        <v>462</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>160</v>
+        <v>463</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -9874,19 +9840,19 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
@@ -9895,7 +9861,7 @@
         <v>43</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -9903,7 +9869,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9911,7 +9877,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>52</v>
@@ -9923,23 +9889,19 @@
         <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>54</v>
+        <v>466</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
       </c>
@@ -9987,10 +9949,10 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>52</v>
@@ -10008,47 +9970,49 @@
         <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>43</v>
+        <v>471</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>469</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -10096,10 +10060,10 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>52</v>
@@ -10114,10 +10078,10 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>43</v>
+        <v>475</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10125,18 +10089,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>474</v>
+        <v>43</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>53</v>
@@ -10148,18 +10112,16 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
@@ -10183,13 +10145,11 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>43</v>
+        <v>480</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -10207,13 +10167,13 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>43</v>
@@ -10225,10 +10185,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10236,7 +10196,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10259,16 +10219,20 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10292,13 +10256,13 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>483</v>
+        <v>43</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>484</v>
+        <v>43</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
@@ -10316,7 +10280,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10334,689 +10298,17 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AB80" s="2"/>
-      <c r="AC80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AM83" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11026,7 +10318,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="501">
   <si>
     <t>Path</t>
   </si>
@@ -1123,7 +1123,17 @@
     <t>DiagnosticReport.code.coding</t>
   </si>
   <si>
+    <t>value:system}
+value:code}</t>
+  </si>
+  <si>
     <t>snomedImagingProcedures</t>
+  </si>
+  <si>
+    <t>Diagnostic Imaging Procedures (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>DiagnosticReport.code.text</t>
@@ -1516,10 +1526,38 @@
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
+    <t>Diagnosis codes provided as adjuncts to the report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>snomedFinding</t>
+  </si>
+  <si>
+    <t>Clinical Finding (SNOMED CT)</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
-    <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
+    <t>DiagnosticReport.conclusionCode.text</t>
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
@@ -1690,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7409,9 +7447,7 @@
       <c r="A52" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7420,7 +7456,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>43</v>
@@ -7481,16 +7517,14 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>205</v>
@@ -7522,9 +7556,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>43</v>
       </c>
@@ -7533,7 +7569,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>43</v>
@@ -7545,19 +7581,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7582,13 +7618,11 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7606,13 +7640,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7624,32 +7658,32 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -7658,17 +7692,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7717,7 +7753,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>255</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7732,35 +7768,35 @@
         <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>257</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>367</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
@@ -7769,19 +7805,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7830,7 +7864,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7845,35 +7879,35 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>43</v>
@@ -7882,19 +7916,19 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7943,7 +7977,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7958,25 +7992,25 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7995,19 +8029,19 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>384</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8056,7 +8090,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8071,32 +8105,32 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>389</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>53</v>
@@ -8108,19 +8142,19 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>401</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8169,13 +8203,13 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -8184,35 +8218,35 @@
         <v>87</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>406</v>
+        <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
@@ -8221,19 +8255,19 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8282,7 +8316,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8297,25 +8331,25 @@
         <v>87</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>43</v>
+        <v>414</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8331,22 +8365,22 @@
         <v>43</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="K60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8395,7 +8429,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8410,35 +8444,35 @@
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>409</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>43</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>425</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>43</v>
@@ -8447,19 +8481,19 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8508,7 +8542,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8526,32 +8560,32 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>43</v>
@@ -8560,16 +8594,20 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>54</v>
+        <v>429</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>66</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8617,28 +8655,28 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>43</v>
+        <v>434</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8646,18 +8684,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>43</v>
@@ -8669,17 +8707,15 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8716,31 +8752,31 @@
         <v>43</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
@@ -8757,18 +8793,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>43</v>
@@ -8777,19 +8813,19 @@
         <v>43</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8827,31 +8863,31 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -8860,7 +8896,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -8868,7 +8904,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8876,7 +8912,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>52</v>
@@ -8891,16 +8927,16 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8926,13 +8962,13 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
@@ -8950,7 +8986,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8959,7 +8995,7 @@
         <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>87</v>
@@ -8979,7 +9015,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9002,16 +9038,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9037,13 +9073,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9061,7 +9097,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9082,7 +9118,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9090,7 +9126,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9113,16 +9149,16 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9172,7 +9208,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9193,7 +9229,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9201,7 +9237,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9212,7 +9248,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
@@ -9221,19 +9257,19 @@
         <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>440</v>
+        <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>441</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>323</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>443</v>
+        <v>324</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9283,13 +9319,13 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
@@ -9304,7 +9340,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>444</v>
+        <v>153</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9312,11 +9348,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9332,21 +9368,21 @@
         <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9394,7 +9430,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9412,10 +9448,10 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>451</v>
+        <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9423,18 +9459,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9443,19 +9479,21 @@
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>66</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>67</v>
+        <v>452</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
@@ -9503,28 +9541,28 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>68</v>
+        <v>448</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>43</v>
+        <v>454</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9532,18 +9570,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -9555,17 +9593,15 @@
         <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -9614,19 +9650,19 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
@@ -9643,11 +9679,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>455</v>
+        <v>71</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9660,26 +9696,24 @@
         <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>456</v>
+        <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
@@ -9727,7 +9761,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9748,7 +9782,7 @@
         <v>43</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
@@ -9756,42 +9790,42 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>43</v>
+        <v>458</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>463</v>
+        <v>160</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -9840,19 +9874,19 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
@@ -9861,7 +9895,7 @@
         <v>43</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -9869,7 +9903,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9877,7 +9911,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>52</v>
@@ -9889,19 +9923,23 @@
         <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
       </c>
@@ -9949,10 +9987,10 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>52</v>
@@ -9970,49 +10008,47 @@
         <v>43</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>471</v>
+        <v>43</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>54</v>
+        <v>469</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -10060,10 +10096,10 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>52</v>
@@ -10078,10 +10114,10 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10089,18 +10125,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>43</v>
+        <v>474</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>53</v>
@@ -10112,16 +10148,18 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
@@ -10145,11 +10183,13 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -10167,13 +10207,13 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>43</v>
@@ -10185,10 +10225,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10196,7 +10236,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10219,20 +10259,16 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10256,13 +10292,13 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>43</v>
+        <v>483</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>43</v>
+        <v>484</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
@@ -10280,7 +10316,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10298,17 +10334,689 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AB80" s="2"/>
+      <c r="AC80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM77">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10318,7 +11026,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="484">
   <si>
     <t>Path</t>
   </si>
@@ -1114,31 +1114,6 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>DiagnosticReport.code.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding</t>
-  </si>
-  <si>
-    <t>value:system}
-value:code}</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedures</t>
-  </si>
-  <si>
-    <t>Diagnostic Imaging Procedures (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.text</t>
-  </si>
-  <si>
     <t>DiagnosticReport.subject</t>
   </si>
   <si>
@@ -1526,38 +1501,10 @@
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
-    <t>Diagnosis codes provided as adjuncts to the report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode.text</t>
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
@@ -1728,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1738,7 +1685,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -7223,41 +7170,43 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>355</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7305,7 +7254,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>68</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7317,35 +7266,35 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>43</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>43</v>
@@ -7354,21 +7303,23 @@
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7404,62 +7355,62 @@
         <v>43</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>43</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>43</v>
@@ -7468,19 +7419,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7517,23 +7468,25 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7542,37 +7495,35 @@
         <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>43</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>43</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
@@ -7581,19 +7532,19 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>203</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7618,11 +7569,13 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7640,13 +7593,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7658,32 +7611,32 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>206</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>43</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -7692,19 +7645,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>252</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>253</v>
+        <v>399</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7753,13 +7706,13 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
@@ -7768,35 +7721,35 @@
         <v>87</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>257</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>43</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>43</v>
@@ -7805,17 +7758,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7864,13 +7819,13 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
@@ -7879,32 +7834,32 @@
         <v>87</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -7913,22 +7868,22 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7977,13 +7932,13 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
@@ -7992,32 +7947,32 @@
         <v>87</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>53</v>
@@ -8026,22 +7981,22 @@
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8090,13 +8045,13 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8105,57 +8060,53 @@
         <v>87</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>392</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>394</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>395</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8203,7 +8154,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>393</v>
+        <v>68</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8215,60 +8166,58 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>400</v>
+        <v>69</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8304,19 +8253,19 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8328,35 +8277,35 @@
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>69</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>412</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8368,20 +8317,18 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>415</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8429,36 +8376,36 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>43</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>411</v>
+        <v>153</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>412</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8469,7 +8416,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8478,23 +8425,21 @@
         <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>421</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8518,13 +8463,13 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8542,13 +8487,13 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8560,54 +8505,52 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>369</v>
+        <v>153</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>428</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>429</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8655,13 +8598,13 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>427</v>
+        <v>319</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>43</v>
@@ -8673,10 +8616,10 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8684,7 +8627,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8704,18 +8647,20 @@
         <v>43</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8764,7 +8709,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8776,7 +8721,7 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
@@ -8785,7 +8730,7 @@
         <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8793,11 +8738,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8816,16 +8761,16 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>74</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8863,19 +8808,19 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8887,7 +8832,7 @@
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -8896,7 +8841,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>69</v>
+        <v>439</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -8904,18 +8849,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>43</v>
+        <v>441</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -8927,18 +8872,18 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>442</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>303</v>
+        <v>443</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
       </c>
@@ -8986,16 +8931,16 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>87</v>
@@ -9004,10 +8949,10 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>43</v>
+        <v>446</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>427</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -9015,7 +8960,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9035,20 +8980,18 @@
         <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9073,13 +9016,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -9097,7 +9040,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9109,7 +9052,7 @@
         <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>43</v>
@@ -9118,7 +9061,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9126,18 +9069,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -9146,19 +9089,19 @@
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9208,19 +9151,19 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>43</v>
@@ -9229,7 +9172,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9237,41 +9180,43 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>323</v>
+        <v>452</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -9319,19 +9264,19 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
@@ -9348,7 +9293,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9359,7 +9304,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
@@ -9371,18 +9316,20 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9430,13 +9377,13 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
@@ -9451,7 +9398,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9459,18 +9406,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9482,18 +9429,16 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
@@ -9541,13 +9486,13 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
@@ -9559,22 +9504,22 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9584,7 +9529,7 @@
         <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>43</v>
@@ -9596,13 +9541,15 @@
         <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>66</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>67</v>
+        <v>468</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
       </c>
@@ -9650,7 +9597,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>68</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9662,28 +9609,28 @@
         <v>43</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>43</v>
+        <v>470</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>69</v>
+        <v>471</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9693,7 +9640,7 @@
         <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>43</v>
@@ -9702,17 +9649,15 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -9737,13 +9682,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>43</v>
+        <v>475</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9761,7 +9704,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9773,28 +9716,28 @@
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>43</v>
+        <v>470</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>458</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9804,28 +9747,28 @@
         <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>75</v>
+        <v>481</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>160</v>
+        <v>482</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -9874,7 +9817,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9886,1137 +9829,23 @@
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>43</v>
+        <v>470</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>153</v>
+        <v>483</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AB80" s="2"/>
-      <c r="AC80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AM83" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11026,7 +9855,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/diagnosticreport-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="368">
   <si>
     <t>Path</t>
   </si>
@@ -528,474 +528,116 @@
     <t>DiagnosticReport.identifier</t>
   </si>
   <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-localorderidentifier|http://hl7.org.au/fhir/StructureDefinition/au-localreportidentifier|http://hl7.org.au/fhir/StructureDefinition/au-accessionnumber}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/servicerequest-path-report-1)
+</t>
+  </si>
+  <si>
+    <t>Pathology order</t>
+  </si>
+  <si>
+    <t>Details concerning a service requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:type}
-</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>fillerIdentifier</t>
-  </si>
-  <si>
-    <t>Filler report identifier</t>
-  </si>
-  <si>
-    <t>A Report Identifier is a unique identifier for each report. It must uniquely identify the report from all other reports in a particular source system (e.g. diagnostic Imaging system, clinical laboratory system). This uniqueness must persist over time. This Report Identifier is the same concept as the Filler Order Number in the HL7 V2 specifications. In some laboratory systems, the Report Identifier may be a concatenation of a Lab Number and Report panel code (e.g. 19P123456-FBC), where the panel code makes the identifier unique from other reports under the same Lab Number. In diagnostic imaging and some pathology systems, the report identifier may be called an accession number as long as there is only a single accession number per report.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/au-hl7v2-0203</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>FILL</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.system</t>
-  </si>
-  <si>
-    <t>Filler identifier system namespace</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.value</t>
-  </si>
-  <si>
-    <t>Filler identifier</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/servicerequest-path-report-1)
-</t>
-  </si>
-  <si>
-    <t>Pathology order</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1043,6 +685,9 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnosticreportstatus-report-available-1</t>
   </si>
   <si>
@@ -1063,6 +708,10 @@
   <si>
     <t>Department
 Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
   </si>
   <si>
     <t>Service category</t>
@@ -1675,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM73"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1684,8 +1333,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1720,8 +1369,8 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="166.02734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="137.69921875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3729,13 +3378,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3751,22 +3400,22 @@
         <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3803,14 +3452,16 @@
         <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>162</v>
@@ -3822,64 +3473,62 @@
         <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -3928,7 +3577,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3943,21 +3592,21 @@
         <v>87</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4066,7 +3715,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4177,7 +3826,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4185,7 +3834,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
@@ -4194,26 +3843,24 @@
         <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>43</v>
       </c>
@@ -4237,13 +3884,13 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
@@ -4270,7 +3917,7 @@
         <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>87</v>
@@ -4279,10 +3926,10 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4298,7 +3945,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>52</v>
@@ -4313,20 +3960,18 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -4350,29 +3995,31 @@
         <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4390,10 +4037,10 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4401,7 +4048,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4421,18 +4068,20 @@
         <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4481,7 +4130,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4493,7 +4142,7 @@
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>43</v>
@@ -4502,7 +4151,7 @@
         <v>43</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4510,18 +4159,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -4530,19 +4179,19 @@
         <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4580,31 +4229,31 @@
         <v>43</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
@@ -4613,15 +4262,15 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4635,28 +4284,26 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4681,13 +4328,11 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4705,13 +4350,13 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4720,52 +4365,54 @@
         <v>87</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>43</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4790,13 +4437,11 @@
         <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
@@ -4814,69 +4459,67 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>43</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4901,64 +4544,62 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>43</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4968,7 +4609,7 @@
         <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>43</v>
@@ -4977,26 +4618,24 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -5038,7 +4677,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5053,25 +4692,25 @@
         <v>87</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>43</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5090,18 +4729,20 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -5149,7 +4790,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5164,25 +4805,25 @@
         <v>87</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>43</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5192,7 +4833,7 @@
         <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>43</v>
@@ -5201,24 +4842,26 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>43</v>
@@ -5260,7 +4903,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5275,35 +4918,35 @@
         <v>87</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
@@ -5312,17 +4955,19 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5371,7 +5016,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5389,32 +5034,32 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -5423,19 +5068,19 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5484,13 +5129,13 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
@@ -5499,32 +5144,32 @@
         <v>87</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
@@ -5536,19 +5181,19 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5597,13 +5242,13 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
@@ -5612,21 +5257,21 @@
         <v>87</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5634,10 +5279,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
@@ -5646,22 +5291,22 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5674,7 +5319,7 @@
         <v>43</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>43</v>
@@ -5710,13 +5355,13 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
@@ -5728,52 +5373,54 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
       </c>
@@ -5785,7 +5432,7 @@
         <v>43</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>43</v>
@@ -5821,13 +5468,13 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
@@ -5839,10 +5486,10 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5850,7 +5497,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5870,16 +5517,16 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5930,7 +5577,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5942,16 +5589,16 @@
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -5959,18 +5606,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -5979,19 +5626,19 @@
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6029,84 +5676,82 @@
         <v>43</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
@@ -6154,28 +5799,28 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -6183,7 +5828,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6203,18 +5848,20 @@
         <v>43</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -6239,13 +5886,13 @@
         <v>43</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>43</v>
@@ -6263,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6275,7 +5922,7 @@
         <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>43</v>
@@ -6284,7 +5931,7 @@
         <v>43</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -6292,18 +5939,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>43</v>
@@ -6312,19 +5959,19 @@
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6362,31 +6009,31 @@
         <v>43</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
@@ -6395,7 +6042,7 @@
         <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -6403,7 +6050,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6411,7 +6058,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
@@ -6429,13 +6076,13 @@
         <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6485,7 +6132,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6494,7 +6141,7 @@
         <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>87</v>
@@ -6514,7 +6161,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6525,7 +6172,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
@@ -6534,19 +6181,19 @@
         <v>43</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6572,13 +6219,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6596,13 +6243,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6617,7 +6264,7 @@
         <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>323</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6625,18 +6272,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>43</v>
@@ -6648,18 +6295,18 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6707,13 +6354,13 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
@@ -6725,10 +6372,10 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6736,7 +6383,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6756,20 +6403,18 @@
         <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6818,7 +6463,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6830,7 +6475,7 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
@@ -6839,49 +6484,49 @@
         <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>43</v>
       </c>
@@ -6905,11 +6550,13 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>330</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
@@ -6927,70 +6574,72 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
@@ -7014,11 +6663,13 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -7036,7 +6687,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7048,56 +6699,60 @@
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
@@ -7121,11 +6776,13 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7143,10 +6800,10 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>52</v>
@@ -7158,25 +6815,25 @@
         <v>87</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>352</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7186,7 +6843,7 @@
         <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
@@ -7195,18 +6852,16 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7254,10 +6909,10 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>52</v>
@@ -7269,25 +6924,25 @@
         <v>87</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7297,28 +6952,26 @@
         <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>365</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7367,7 +7020,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7382,32 +7035,32 @@
         <v>87</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>375</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>53</v>
@@ -7416,23 +7069,19 @@
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>376</v>
+        <v>220</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7456,13 +7105,11 @@
         <v>43</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>43</v>
@@ -7480,13 +7127,13 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7495,32 +7142,32 @@
         <v>87</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>53</v>
@@ -7529,22 +7176,22 @@
         <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7593,13 +7240,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7611,2241 +7258,17 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM73" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM73">
+  <autoFilter ref="A1:AM53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9855,7 +7278,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
